--- a/database/seeders/data/LINEN.xlsx
+++ b/database/seeders/data/LINEN.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\oxxo\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FC91D8D-A744-446A-B5CB-79E6EC6E4C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33109C9-1FC8-437A-B1F0-2B7E9B7D4973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7A33A711-48B9-4645-A1A2-3126775ECEC7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Bed sheet (A)</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>LINEN</t>
+  </si>
+  <si>
+    <t>DC Price</t>
   </si>
 </sst>
 </file>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1366138F-2375-4878-B7E8-F9FE99741CCD}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,79 +444,124 @@
     <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>92000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>137000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>247000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>94000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
+      </c>
+      <c r="B15">
+        <v>67000</v>
       </c>
     </row>
   </sheetData>
